--- a/Sharpe das Estratégias/s3F.xlsx
+++ b/Sharpe das Estratégias/s3F.xlsx
@@ -1,21 +1,236 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takes\Documents\Insper\Data\Projeto Fin\GitHub\Data_Fin_2021.1\Sharpe das Estratégias\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815CFF91-71AD-4000-92EB-26E99883F273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>PETR4 BS Equity</t>
+  </si>
+  <si>
+    <t>VALE3 BS Equity</t>
+  </si>
+  <si>
+    <t>BBDC4 BS Equity</t>
+  </si>
+  <si>
+    <t>ITUB4 BS Equity</t>
+  </si>
+  <si>
+    <t>MGLU3 BS Equity</t>
+  </si>
+  <si>
+    <t>B3SA3 BS Equity</t>
+  </si>
+  <si>
+    <t>VVAR3 BS Equity</t>
+  </si>
+  <si>
+    <t>JBSS3 BS Equity</t>
+  </si>
+  <si>
+    <t>ABEV3 BS Equity</t>
+  </si>
+  <si>
+    <t>^BVSP</t>
+  </si>
+  <si>
+    <t>abev3</t>
+  </si>
+  <si>
+    <t>ações</t>
+  </si>
+  <si>
+    <t>alimentos</t>
+  </si>
+  <si>
+    <t>ambev</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>bacen</t>
+  </si>
+  <si>
+    <t>banco</t>
+  </si>
+  <si>
+    <t>bbdc4</t>
+  </si>
+  <si>
+    <t>bitcoin</t>
+  </si>
+  <si>
+    <t>bolsa</t>
+  </si>
+  <si>
+    <t>bradesco</t>
+  </si>
+  <si>
+    <t>bvsp</t>
+  </si>
+  <si>
+    <t>cerveja</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>cor</t>
+  </si>
+  <si>
+    <t>corretora</t>
+  </si>
+  <si>
+    <t>credito</t>
+  </si>
+  <si>
+    <t>crise</t>
+  </si>
+  <si>
+    <t>derivativos</t>
+  </si>
+  <si>
+    <t>desemprego</t>
+  </si>
+  <si>
+    <t>dinheiro</t>
+  </si>
+  <si>
+    <t>divida</t>
+  </si>
+  <si>
+    <t>dividendos</t>
+  </si>
+  <si>
+    <t>dolar</t>
+  </si>
+  <si>
+    <t>economia</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>estagio</t>
+  </si>
+  <si>
+    <t>ferro</t>
+  </si>
+  <si>
+    <t>financas</t>
+  </si>
+  <si>
+    <t>fundos</t>
+  </si>
+  <si>
+    <t>gado</t>
+  </si>
+  <si>
+    <t>gasolina</t>
+  </si>
+  <si>
+    <t>ibovespa</t>
+  </si>
+  <si>
+    <t>inflacao</t>
+  </si>
+  <si>
+    <t>investimento</t>
+  </si>
+  <si>
+    <t>investir</t>
+  </si>
+  <si>
+    <t>itau</t>
+  </si>
+  <si>
+    <t>itub4</t>
+  </si>
+  <si>
+    <t>jbs</t>
+  </si>
+  <si>
+    <t>jbss3</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>mercado</t>
+  </si>
+  <si>
+    <t>mglu3</t>
+  </si>
+  <si>
+    <t>mineraca</t>
+  </si>
+  <si>
+    <t>petr4</t>
+  </si>
+  <si>
+    <t>petrobras</t>
+  </si>
+  <si>
+    <t>petroleo</t>
+  </si>
+  <si>
+    <t>politica</t>
+  </si>
+  <si>
+    <t>portifolio</t>
+  </si>
+  <si>
+    <t>renda</t>
+  </si>
+  <si>
+    <t>restaurante</t>
+  </si>
+  <si>
+    <t>selic</t>
+  </si>
+  <si>
+    <t>titulos</t>
+  </si>
+  <si>
+    <t>vale</t>
+  </si>
+  <si>
+    <t>vale3</t>
+  </si>
+  <si>
+    <t>viajar</t>
+  </si>
+  <si>
+    <t>vvar3</t>
+  </si>
+  <si>
+    <t>xp</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,12 +239,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,17 +262,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -67,10 +293,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -78,6 +307,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +393,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +445,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,198 +638,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:BG1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:59">
-      <c r="B1" s="1">
+    <row r="1" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
       <c r="B2">
-        <v>0.8479723757098219</v>
+        <v>0.84797237570982187</v>
       </c>
       <c r="C2">
-        <v>0.9074279186908416</v>
+        <v>0.90742791869084161</v>
       </c>
       <c r="D2">
         <v>1.007752629978881</v>
@@ -565,37 +840,37 @@
         <v>1.235086168444625</v>
       </c>
       <c r="F2">
-        <v>0.9168214806344031</v>
+        <v>0.91682148063440305</v>
       </c>
       <c r="G2">
         <v>1.202983779838503</v>
       </c>
       <c r="H2">
-        <v>0.3237970900512643</v>
+        <v>0.32379709005126428</v>
       </c>
       <c r="I2">
-        <v>0.5860410162610966</v>
+        <v>0.58604101626109661</v>
       </c>
       <c r="J2">
-        <v>0.392509479866693</v>
+        <v>0.39250947986669299</v>
       </c>
       <c r="K2">
-        <v>0.8719754374725406</v>
+        <v>0.87197543747254058</v>
       </c>
       <c r="L2">
-        <v>0.6034995155395335</v>
+        <v>0.60349951553953352</v>
       </c>
       <c r="M2">
-        <v>0.7562478949538864</v>
+        <v>0.75624789495388645</v>
       </c>
       <c r="N2">
-        <v>0.4161963200722223</v>
+        <v>0.41619632007222229</v>
       </c>
       <c r="O2">
-        <v>0.9460640443794823</v>
+        <v>0.94606404437948233</v>
       </c>
       <c r="P2">
-        <v>0.2884060980675089</v>
+        <v>0.28840609806750889</v>
       </c>
       <c r="Q2">
         <v>0.8725735340340679</v>
@@ -604,64 +879,64 @@
         <v>1.196028154031741</v>
       </c>
       <c r="S2">
-        <v>0.7614635092625744</v>
+        <v>0.76146350926257445</v>
       </c>
       <c r="T2">
-        <v>0.6983306686456828</v>
+        <v>0.69833066864568283</v>
       </c>
       <c r="U2">
-        <v>0.7204047272215148</v>
+        <v>0.72040472722151483</v>
       </c>
       <c r="V2">
-        <v>0.7571995569769999</v>
+        <v>0.75719955697699992</v>
       </c>
       <c r="W2">
         <v>1.299633270936229</v>
       </c>
       <c r="X2">
-        <v>0.5726209921565447</v>
+        <v>0.57262099215654472</v>
       </c>
       <c r="Y2">
-        <v>0.9510790615874178</v>
+        <v>0.95107906158741784</v>
       </c>
       <c r="Z2">
-        <v>0.8071469077442449</v>
+        <v>0.80714690774424491</v>
       </c>
       <c r="AA2">
-        <v>1.178858046099556</v>
+        <v>1.1788580460995559</v>
       </c>
       <c r="AB2">
-        <v>0.9340525455594365</v>
+        <v>0.93405254555943651</v>
       </c>
       <c r="AC2">
-        <v>0.1416858603799674</v>
+        <v>0.14168586037996739</v>
       </c>
       <c r="AD2">
-        <v>0.6242920212042495</v>
+        <v>0.62429202120424954</v>
       </c>
       <c r="AE2">
         <v>1.036616544046298</v>
       </c>
       <c r="AF2">
-        <v>0.3279175665558752</v>
+        <v>0.32791756655587517</v>
       </c>
       <c r="AG2">
-        <v>0.8235990969015499</v>
+        <v>0.82359909690154987</v>
       </c>
       <c r="AH2">
-        <v>0.5981303728421622</v>
+        <v>0.59813037284216219</v>
       </c>
       <c r="AI2">
-        <v>1.049027441660383</v>
+        <v>1.0490274416603831</v>
       </c>
       <c r="AJ2">
-        <v>0.8290197419915605</v>
+        <v>0.82901974199156048</v>
       </c>
       <c r="AK2">
-        <v>0.6675727599384257</v>
+        <v>0.66757275993842569</v>
       </c>
       <c r="AL2">
-        <v>0.7308195220987923</v>
+        <v>0.73081952209879231</v>
       </c>
       <c r="AM2">
         <v>1.241946067409853</v>
@@ -670,135 +945,135 @@
         <v>1.042349892978869</v>
       </c>
       <c r="AO2">
-        <v>1.130706718743497</v>
+        <v>1.1307067187434969</v>
       </c>
       <c r="AP2">
-        <v>0.7132702931074456</v>
+        <v>0.71327029310744561</v>
       </c>
       <c r="AQ2">
-        <v>0.6015448069733728</v>
+        <v>0.60154480697337276</v>
       </c>
       <c r="AR2">
-        <v>0.9080671832251878</v>
+        <v>0.90806718322518776</v>
       </c>
       <c r="AS2">
         <v>1.077446337823597</v>
       </c>
       <c r="AT2">
-        <v>0.7614494942316465</v>
+        <v>0.76144949423164654</v>
       </c>
       <c r="AU2">
-        <v>1.128614316153678</v>
+        <v>1.1286143161536779</v>
       </c>
       <c r="AV2">
-        <v>0.702791792259526</v>
+        <v>0.70279179225952604</v>
       </c>
       <c r="AW2">
-        <v>0.8731242217465707</v>
+        <v>0.87312422174657067</v>
       </c>
       <c r="AX2">
-        <v>0.6708854467081222</v>
+        <v>0.67088544670812222</v>
       </c>
       <c r="AY2">
-        <v>1.176650112068741</v>
+        <v>1.1766501120687409</v>
       </c>
       <c r="AZ2">
-        <v>0.8725490666955161</v>
+        <v>0.87254906669551613</v>
       </c>
       <c r="BA2">
         <v>1.302596177452521</v>
       </c>
       <c r="BB2">
-        <v>0.8864979003419174</v>
+        <v>0.88649790034191744</v>
       </c>
       <c r="BC2">
-        <v>0.8281960275586353</v>
+        <v>0.82819602755863531</v>
       </c>
       <c r="BD2">
-        <v>0.5727864364626752</v>
+        <v>0.57278643646267524</v>
       </c>
       <c r="BE2">
-        <v>0.9290042010594204</v>
+        <v>0.92900420105942039</v>
       </c>
       <c r="BF2">
         <v>1.007362052246322</v>
       </c>
       <c r="BG2">
-        <v>0.745272483905034</v>
+        <v>0.74527248390503398</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
-      <c r="A3" s="1">
+    <row r="3" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.084703406501398</v>
+        <v>1.0847034065013981</v>
       </c>
       <c r="C3">
-        <v>0.848852477460994</v>
+        <v>0.84885247746099401</v>
       </c>
       <c r="D3">
         <v>1.253999740128275</v>
       </c>
       <c r="E3">
-        <v>1.354106381825877</v>
+        <v>1.3541063818258769</v>
       </c>
       <c r="F3">
-        <v>0.6795921812916509</v>
+        <v>0.67959218129165089</v>
       </c>
       <c r="G3">
-        <v>1.184065306400257</v>
+        <v>1.1840653064002571</v>
       </c>
       <c r="H3">
-        <v>0.4435238476354326</v>
+        <v>0.44352384763543262</v>
       </c>
       <c r="I3">
-        <v>1.08922600389634</v>
+        <v>1.0892260038963399</v>
       </c>
       <c r="J3">
-        <v>0.8234583518532331</v>
+        <v>0.82345835185323313</v>
       </c>
       <c r="K3">
-        <v>0.8066065167157364</v>
+        <v>0.80660651671573635</v>
       </c>
       <c r="L3">
-        <v>0.9609026706912017</v>
+        <v>0.96090267069120172</v>
       </c>
       <c r="M3">
-        <v>0.8765497996150328</v>
+        <v>0.87654979961503277</v>
       </c>
       <c r="N3">
-        <v>0.9128309306814417</v>
+        <v>0.91283093068144172</v>
       </c>
       <c r="O3">
         <v>1.322701394615746</v>
       </c>
       <c r="P3">
-        <v>0.6305652080071962</v>
+        <v>0.63056520800719618</v>
       </c>
       <c r="Q3">
-        <v>0.6755059817791891</v>
+        <v>0.67550598177918908</v>
       </c>
       <c r="R3">
         <v>0.6919717223164632</v>
       </c>
       <c r="S3">
-        <v>0.7705566127937545</v>
+        <v>0.77055661279375454</v>
       </c>
       <c r="T3">
-        <v>1.162727753971098</v>
+        <v>1.1627277539710981</v>
       </c>
       <c r="U3">
         <v>1.109061805172376</v>
       </c>
       <c r="V3">
-        <v>0.9552524195247301</v>
+        <v>0.95525241952473006</v>
       </c>
       <c r="W3">
-        <v>0.8802362863089169</v>
+        <v>0.88023628630891693</v>
       </c>
       <c r="X3">
-        <v>0.7935854062033458</v>
+        <v>0.79358540620334583</v>
       </c>
       <c r="Y3">
         <v>1.009713309276369</v>
@@ -813,88 +1088,88 @@
         <v>1.216197198595506</v>
       </c>
       <c r="AC3">
-        <v>0.2957595981378203</v>
+        <v>0.29575959813782032</v>
       </c>
       <c r="AD3">
-        <v>0.5630733667784699</v>
+        <v>0.56307336677846986</v>
       </c>
       <c r="AE3">
         <v>1.201364063404039</v>
       </c>
       <c r="AF3">
-        <v>0.8883735076843061</v>
+        <v>0.88837350768430612</v>
       </c>
       <c r="AG3">
-        <v>1.119137299364141</v>
+        <v>1.1191372993641411</v>
       </c>
       <c r="AH3">
-        <v>0.9356315267703234</v>
+        <v>0.93563152677032335</v>
       </c>
       <c r="AI3">
-        <v>1.257187563128131</v>
+        <v>1.2571875631281311</v>
       </c>
       <c r="AJ3">
-        <v>1.11424236628521</v>
+        <v>1.1142423662852099</v>
       </c>
       <c r="AK3">
-        <v>0.8178567112646541</v>
+        <v>0.81785671126465409</v>
       </c>
       <c r="AL3">
         <v>1.194436970299305</v>
       </c>
       <c r="AM3">
-        <v>0.9010901524523054</v>
+        <v>0.90109015245230539</v>
       </c>
       <c r="AN3">
-        <v>1.274926609175301</v>
+        <v>1.2749266091753011</v>
       </c>
       <c r="AO3">
         <v>1.068833578319403</v>
       </c>
       <c r="AP3">
-        <v>0.8044287103726714</v>
+        <v>0.80442871037267139</v>
       </c>
       <c r="AQ3">
-        <v>0.7530266434945589</v>
+        <v>0.75302664349455894</v>
       </c>
       <c r="AR3">
-        <v>1.068887708323743</v>
+        <v>1.0688877083237429</v>
       </c>
       <c r="AS3">
-        <v>0.6628256174487018</v>
+        <v>0.66282561744870183</v>
       </c>
       <c r="AT3">
-        <v>0.8594432403708318</v>
+        <v>0.85944324037083175</v>
       </c>
       <c r="AU3">
-        <v>0.7454854403796505</v>
+        <v>0.74548544037965048</v>
       </c>
       <c r="AV3">
-        <v>1.159699147288752</v>
+        <v>1.1596991472887519</v>
       </c>
       <c r="AW3">
-        <v>0.9714533279218864</v>
+        <v>0.97145332792188643</v>
       </c>
       <c r="AX3">
-        <v>0.7883044220827901</v>
+        <v>0.78830442208279006</v>
       </c>
       <c r="AY3">
-        <v>1.334497835468439</v>
+        <v>1.3344978354684389</v>
       </c>
       <c r="AZ3">
-        <v>1.119392299821974</v>
+        <v>1.1193922998219741</v>
       </c>
       <c r="BA3">
         <v>1.445677418018926</v>
       </c>
       <c r="BB3">
-        <v>1.093601968556169</v>
+        <v>1.0936019685561691</v>
       </c>
       <c r="BC3">
-        <v>0.7556767728958034</v>
+        <v>0.75567677289580337</v>
       </c>
       <c r="BD3">
-        <v>0.4884038804239714</v>
+        <v>0.48840388042397143</v>
       </c>
       <c r="BE3">
         <v>1.128424766687935</v>
@@ -903,215 +1178,215 @@
         <v>1.234644850400956</v>
       </c>
       <c r="BG3">
-        <v>1.161195234914597</v>
+        <v>1.1611952349145971</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
-      <c r="A4" s="1">
+    <row r="4" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7896754103623584</v>
+        <v>0.78967541036235844</v>
       </c>
       <c r="C4">
-        <v>0.8098387323730158</v>
+        <v>0.80983873237301585</v>
       </c>
       <c r="D4">
-        <v>0.945755811783472</v>
+        <v>0.94575581178347201</v>
       </c>
       <c r="E4">
-        <v>1.252019920489052</v>
+        <v>1.2520199204890521</v>
       </c>
       <c r="F4">
-        <v>0.7768122065617079</v>
+        <v>0.77681220656170791</v>
       </c>
       <c r="G4">
-        <v>0.8700213962044649</v>
+        <v>0.87002139620446495</v>
       </c>
       <c r="H4">
         <v>0.1447733719874888</v>
       </c>
       <c r="I4">
-        <v>0.6172127709727674</v>
+        <v>0.61721277097276739</v>
       </c>
       <c r="J4">
-        <v>0.4833732757326127</v>
+        <v>0.48337327573261268</v>
       </c>
       <c r="K4">
         <v>1.105293080621389</v>
       </c>
       <c r="L4">
-        <v>0.3439073025659248</v>
+        <v>0.34390730256592478</v>
       </c>
       <c r="M4">
-        <v>0.6961019345743134</v>
+        <v>0.69610193457431335</v>
       </c>
       <c r="N4">
         <v>0.4414543189456463</v>
       </c>
       <c r="O4">
-        <v>0.6684518432593251</v>
+        <v>0.66845184325932505</v>
       </c>
       <c r="P4">
-        <v>0.4518422576502313</v>
+        <v>0.45184225765023128</v>
       </c>
       <c r="Q4">
-        <v>0.6247173496128182</v>
+        <v>0.62471734961281822</v>
       </c>
       <c r="R4">
         <v>1.168248582152851</v>
       </c>
       <c r="S4">
-        <v>0.6167493118214641</v>
+        <v>0.61674931182146409</v>
       </c>
       <c r="T4">
-        <v>0.4476960741460407</v>
+        <v>0.44769607414604068</v>
       </c>
       <c r="U4">
-        <v>0.7005410041026038</v>
+        <v>0.70054100410260378</v>
       </c>
       <c r="V4">
-        <v>0.7952710446461989</v>
+        <v>0.79527104464619891</v>
       </c>
       <c r="W4">
-        <v>0.3938310617554721</v>
+        <v>0.39383106175547211</v>
       </c>
       <c r="X4">
-        <v>0.902043941948509</v>
+        <v>0.90204394194850901</v>
       </c>
       <c r="Y4">
-        <v>1.002858918893118</v>
+        <v>1.0028589188931181</v>
       </c>
       <c r="Z4">
-        <v>0.5690543047487704</v>
+        <v>0.56905430474877039</v>
       </c>
       <c r="AA4">
-        <v>0.9738563003088975</v>
+        <v>0.97385630030889747</v>
       </c>
       <c r="AB4">
-        <v>1.012956035626771</v>
+        <v>1.0129560356267711</v>
       </c>
       <c r="AC4">
-        <v>0.04844222643500347</v>
+        <v>4.8442226435003469E-2</v>
       </c>
       <c r="AD4">
-        <v>0.06735684140982015</v>
+        <v>6.7356841409820151E-2</v>
       </c>
       <c r="AE4">
-        <v>0.34980470804883</v>
+        <v>0.34980470804883002</v>
       </c>
       <c r="AF4">
-        <v>0.2541768260340683</v>
+        <v>0.25417682603406833</v>
       </c>
       <c r="AG4">
-        <v>0.6553219496681316</v>
+        <v>0.65532194966813162</v>
       </c>
       <c r="AH4">
-        <v>0.5815212316044608</v>
+        <v>0.58152123160446079</v>
       </c>
       <c r="AI4">
-        <v>0.4823548649510686</v>
+        <v>0.48235486495106861</v>
       </c>
       <c r="AJ4">
-        <v>0.5735612530369419</v>
+        <v>0.57356125303694194</v>
       </c>
       <c r="AK4">
-        <v>0.6470408512116664</v>
+        <v>0.64704085121166643</v>
       </c>
       <c r="AL4">
-        <v>0.3446225043854749</v>
+        <v>0.34462250438547493</v>
       </c>
       <c r="AM4">
-        <v>0.9989384847067101</v>
+        <v>0.99893848470671009</v>
       </c>
       <c r="AN4">
-        <v>0.8811836663064592</v>
+        <v>0.88118366630645917</v>
       </c>
       <c r="AO4">
-        <v>0.7638506500292402</v>
+        <v>0.76385065002924024</v>
       </c>
       <c r="AP4">
-        <v>0.9607172989083969</v>
+        <v>0.96071729890839686</v>
       </c>
       <c r="AQ4">
-        <v>0.3399609900797635</v>
+        <v>0.33996099007976349</v>
       </c>
       <c r="AR4">
-        <v>0.8325268180266917</v>
+        <v>0.83252681802669171</v>
       </c>
       <c r="AS4">
-        <v>0.9425186742489136</v>
+        <v>0.94251867424891356</v>
       </c>
       <c r="AT4">
-        <v>0.7964330746706402</v>
+        <v>0.79643307467064017</v>
       </c>
       <c r="AU4">
         <v>1.069144025122162</v>
       </c>
       <c r="AV4">
-        <v>0.5574660464688008</v>
+        <v>0.55746604646880082</v>
       </c>
       <c r="AW4">
-        <v>0.3376124045976258</v>
+        <v>0.33761240459762581</v>
       </c>
       <c r="AX4">
-        <v>0.7672780609260942</v>
+        <v>0.76727806092609419</v>
       </c>
       <c r="AY4">
-        <v>0.753385868087829</v>
+        <v>0.75338586808782904</v>
       </c>
       <c r="AZ4">
-        <v>0.8786029254518434</v>
+        <v>0.87860292545184338</v>
       </c>
       <c r="BA4">
         <v>1.09493178887424</v>
       </c>
       <c r="BB4">
-        <v>0.4225382464878777</v>
+        <v>0.42253824648787769</v>
       </c>
       <c r="BC4">
-        <v>0.4664444458315136</v>
+        <v>0.46644444583151362</v>
       </c>
       <c r="BD4">
-        <v>0.6788325645271984</v>
+        <v>0.67883256452719842</v>
       </c>
       <c r="BE4">
-        <v>0.5130881272211107</v>
+        <v>0.51308812722111075</v>
       </c>
       <c r="BF4">
-        <v>0.6604801239844085</v>
+        <v>0.66048012398440847</v>
       </c>
       <c r="BG4">
-        <v>0.6705543443522671</v>
+        <v>0.67055434435226713</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
-      <c r="A5" s="1">
+    <row r="5" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8663907528124803</v>
+        <v>0.86639075281248035</v>
       </c>
       <c r="C5">
-        <v>0.8138179147291584</v>
+        <v>0.81381791472915843</v>
       </c>
       <c r="D5">
         <v>1.073805317198312</v>
       </c>
       <c r="E5">
-        <v>1.348492445988075</v>
+        <v>1.3484924459880749</v>
       </c>
       <c r="F5">
         <v>0.7972905327832126</v>
       </c>
       <c r="G5">
-        <v>0.8474300965037851</v>
+        <v>0.84743009650378509</v>
       </c>
       <c r="H5">
         <v>0.1840459172876984</v>
       </c>
       <c r="I5">
-        <v>0.5512196130931953</v>
+        <v>0.55121961309319534</v>
       </c>
       <c r="J5">
         <v>0.2347580837668512</v>
@@ -1120,10 +1395,10 @@
         <v>1.250267190241624</v>
       </c>
       <c r="L5">
-        <v>0.3706149879931152</v>
+        <v>0.37061498799311521</v>
       </c>
       <c r="M5">
-        <v>0.5749126372668187</v>
+        <v>0.57491263726681874</v>
       </c>
       <c r="N5">
         <v>0.181536845700076</v>
@@ -1132,79 +1407,79 @@
         <v>0.7958363799532151</v>
       </c>
       <c r="P5">
-        <v>0.744401674245029</v>
+        <v>0.74440167424502901</v>
       </c>
       <c r="Q5">
-        <v>0.612803399644167</v>
+        <v>0.61280339964416697</v>
       </c>
       <c r="R5">
-        <v>0.9105009431442689</v>
+        <v>0.91050094314426888</v>
       </c>
       <c r="S5">
-        <v>0.7699020002833876</v>
+        <v>0.76990200028338762</v>
       </c>
       <c r="T5">
-        <v>0.5946741567460603</v>
+        <v>0.59467415674606028</v>
       </c>
       <c r="U5">
-        <v>0.7373067496331668</v>
+        <v>0.73730674963316678</v>
       </c>
       <c r="V5">
-        <v>0.7609528233711766</v>
+        <v>0.76095282337117665</v>
       </c>
       <c r="W5">
-        <v>0.7198603809390373</v>
+        <v>0.71986038093903726</v>
       </c>
       <c r="X5">
         <v>1.005876906126782</v>
       </c>
       <c r="Y5">
-        <v>1.054462226428415</v>
+        <v>1.0544622264284149</v>
       </c>
       <c r="Z5">
         <v>0.8277773232077037</v>
       </c>
       <c r="AA5">
-        <v>1.083082124931866</v>
+        <v>1.0830821249318661</v>
       </c>
       <c r="AB5">
-        <v>1.133630173004517</v>
+        <v>1.1336301730045171</v>
       </c>
       <c r="AC5">
-        <v>0.2545054770463822</v>
+        <v>0.25450547704638221</v>
       </c>
       <c r="AD5">
         <v>0.2458877764456403</v>
       </c>
       <c r="AE5">
-        <v>0.2631154921667622</v>
+        <v>0.26311549216676222</v>
       </c>
       <c r="AF5">
-        <v>0.3772976980802906</v>
+        <v>0.37729769808029062</v>
       </c>
       <c r="AG5">
-        <v>0.5630566835654441</v>
+        <v>0.56305668356544414</v>
       </c>
       <c r="AH5">
-        <v>0.7140150836396119</v>
+        <v>0.71401508363961186</v>
       </c>
       <c r="AI5">
-        <v>0.5167933543530708</v>
+        <v>0.51679335435307083</v>
       </c>
       <c r="AJ5">
         <v>0.5516805345896838</v>
       </c>
       <c r="AK5">
-        <v>0.7164525167897451</v>
+        <v>0.71645251678974509</v>
       </c>
       <c r="AL5">
-        <v>0.3084170547449449</v>
+        <v>0.30841705474494491</v>
       </c>
       <c r="AM5">
-        <v>0.8559139404173494</v>
+        <v>0.85591394041734936</v>
       </c>
       <c r="AN5">
-        <v>0.8025935155033945</v>
+        <v>0.80259351550339453</v>
       </c>
       <c r="AO5">
         <v>0.6888461586424699</v>
@@ -1213,78 +1488,78 @@
         <v>1.00038861297218</v>
       </c>
       <c r="AQ5">
-        <v>0.5276249531447503</v>
+        <v>0.52762495314475033</v>
       </c>
       <c r="AR5">
-        <v>0.8455603343354118</v>
+        <v>0.84556033433541178</v>
       </c>
       <c r="AS5">
         <v>1.547251716431812</v>
       </c>
       <c r="AT5">
-        <v>0.9976273086784097</v>
+        <v>0.99762730867840965</v>
       </c>
       <c r="AU5">
         <v>1.00606235706972</v>
       </c>
       <c r="AV5">
-        <v>0.7305779152810902</v>
+        <v>0.73057791528109017</v>
       </c>
       <c r="AW5">
-        <v>0.4203180558960479</v>
+        <v>0.42031805589604793</v>
       </c>
       <c r="AX5">
-        <v>0.8817922127150318</v>
+        <v>0.88179221271503183</v>
       </c>
       <c r="AY5">
-        <v>0.7656278560797155</v>
+        <v>0.76562785607971551</v>
       </c>
       <c r="AZ5">
-        <v>0.6594234600597869</v>
+        <v>0.65942346005978691</v>
       </c>
       <c r="BA5">
-        <v>0.9735964687763444</v>
+        <v>0.97359646877634443</v>
       </c>
       <c r="BB5">
-        <v>0.4909423250398616</v>
+        <v>0.49094232503986163</v>
       </c>
       <c r="BC5">
-        <v>0.3512909274552536</v>
+        <v>0.35129092745525359</v>
       </c>
       <c r="BD5">
-        <v>0.7058533358063273</v>
+        <v>0.70585333580632725</v>
       </c>
       <c r="BE5">
-        <v>0.6271919302242219</v>
+        <v>0.62719193022422193</v>
       </c>
       <c r="BF5">
-        <v>0.5672767927908136</v>
+        <v>0.56727679279081356</v>
       </c>
       <c r="BG5">
-        <v>0.8396442173262355</v>
+        <v>0.83964421732623551</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
-      <c r="A6" s="1">
+    <row r="6" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1.943355043434958</v>
       </c>
       <c r="C6">
-        <v>1.915046967027121</v>
+        <v>1.9150469670271211</v>
       </c>
       <c r="D6">
-        <v>2.225875569893451</v>
+        <v>2.2258755698934509</v>
       </c>
       <c r="E6">
-        <v>2.153123928166399</v>
+        <v>2.1531239281663992</v>
       </c>
       <c r="F6">
-        <v>1.59258601173427</v>
+        <v>1.5925860117342701</v>
       </c>
       <c r="G6">
-        <v>2.531867215508722</v>
+        <v>2.5318672155087221</v>
       </c>
       <c r="H6">
         <v>1.674731161663134</v>
@@ -1296,25 +1571,25 @@
         <v>1.518695514169385</v>
       </c>
       <c r="K6">
-        <v>1.985857568921045</v>
+        <v>1.9858575689210449</v>
       </c>
       <c r="L6">
-        <v>1.647341063668086</v>
+        <v>1.6473410636680861</v>
       </c>
       <c r="M6">
         <v>2.30684883808958</v>
       </c>
       <c r="N6">
-        <v>1.820976236557499</v>
+        <v>1.8209762365574991</v>
       </c>
       <c r="O6">
         <v>1.627572353007396</v>
       </c>
       <c r="P6">
-        <v>1.689249362878373</v>
+        <v>1.6892493628783729</v>
       </c>
       <c r="Q6">
-        <v>1.557735849107796</v>
+        <v>1.5577358491077959</v>
       </c>
       <c r="R6">
         <v>1.903479012562949</v>
@@ -1326,52 +1601,52 @@
         <v>1.70015314533037</v>
       </c>
       <c r="U6">
-        <v>1.796816164679207</v>
+        <v>1.7968161646792069</v>
       </c>
       <c r="V6">
         <v>1.948573674361983</v>
       </c>
       <c r="W6">
-        <v>2.004677359928095</v>
+        <v>2.0046773599280949</v>
       </c>
       <c r="X6">
-        <v>1.987725652254268</v>
+        <v>1.9877256522542679</v>
       </c>
       <c r="Y6">
         <v>2.008763102215374</v>
       </c>
       <c r="Z6">
-        <v>1.803133993799069</v>
+        <v>1.8031339937990689</v>
       </c>
       <c r="AA6">
-        <v>2.161037181181288</v>
+        <v>2.1610371811812881</v>
       </c>
       <c r="AB6">
-        <v>2.293643477013309</v>
+        <v>2.2936434770133092</v>
       </c>
       <c r="AC6">
-        <v>1.203400615680858</v>
+        <v>1.2034006156808581</v>
       </c>
       <c r="AD6">
         <v>1.600140260118875</v>
       </c>
       <c r="AE6">
-        <v>1.940645217345715</v>
+        <v>1.9406452173457149</v>
       </c>
       <c r="AF6">
-        <v>1.33761814486031</v>
+        <v>1.3376181448603099</v>
       </c>
       <c r="AG6">
-        <v>1.824807638936731</v>
+        <v>1.8248076389367309</v>
       </c>
       <c r="AH6">
-        <v>1.899241677868663</v>
+        <v>1.8992416778686629</v>
       </c>
       <c r="AI6">
         <v>2.20373300409452</v>
       </c>
       <c r="AJ6">
-        <v>1.429234589447998</v>
+        <v>1.4292345894479981</v>
       </c>
       <c r="AK6">
         <v>1.612465837434939</v>
@@ -1380,34 +1655,34 @@
         <v>1.748166106062768</v>
       </c>
       <c r="AM6">
-        <v>1.863286702052232</v>
+        <v>1.8632867020522319</v>
       </c>
       <c r="AN6">
-        <v>2.188289666847619</v>
+        <v>2.1882896668476191</v>
       </c>
       <c r="AO6">
         <v>1.711963077316925</v>
       </c>
       <c r="AP6">
-        <v>1.89731732047288</v>
+        <v>1.8973173204728799</v>
       </c>
       <c r="AQ6">
         <v>1.604363288090298</v>
       </c>
       <c r="AR6">
-        <v>1.755262489508648</v>
+        <v>1.7552624895086479</v>
       </c>
       <c r="AS6">
-        <v>1.946515483366977</v>
+        <v>1.9465154833669771</v>
       </c>
       <c r="AT6">
-        <v>1.807072063458311</v>
+        <v>1.8070720634583111</v>
       </c>
       <c r="AU6">
         <v>1.925796661921616</v>
       </c>
       <c r="AV6">
-        <v>1.894302241170318</v>
+        <v>1.8943022411703181</v>
       </c>
       <c r="AW6">
         <v>1.945405923318325</v>
@@ -1416,7 +1691,7 @@
         <v>1.880913857585456</v>
       </c>
       <c r="AY6">
-        <v>2.07199522451651</v>
+        <v>2.0719952245165101</v>
       </c>
       <c r="AZ6">
         <v>1.78826770997608</v>
@@ -1428,36 +1703,36 @@
         <v>1.436949265749119</v>
       </c>
       <c r="BC6">
-        <v>2.008496650960691</v>
+        <v>2.0084966509606912</v>
       </c>
       <c r="BD6">
         <v>1.591456081744804</v>
       </c>
       <c r="BE6">
-        <v>1.896936068787665</v>
+        <v>1.8969360687876651</v>
       </c>
       <c r="BF6">
-        <v>2.243475771286943</v>
+        <v>2.2434757712869429</v>
       </c>
       <c r="BG6">
-        <v>2.04046915764961</v>
+        <v>2.0404691576496101</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
-      <c r="A7" s="1">
+    <row r="7" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>0.6218267933835897</v>
       </c>
       <c r="C7">
-        <v>0.6198266251085908</v>
+        <v>0.61982662510859077</v>
       </c>
       <c r="D7">
         <v>1.545101121223176</v>
       </c>
       <c r="E7">
-        <v>1.431896505264819</v>
+        <v>1.4318965052648189</v>
       </c>
       <c r="F7">
         <v>0.8132639840953001</v>
@@ -1466,19 +1741,19 @@
         <v>1.261988207372768</v>
       </c>
       <c r="H7">
-        <v>0.8671352498658023</v>
+        <v>0.86713524986580226</v>
       </c>
       <c r="I7">
         <v>0.6919388372796248</v>
       </c>
       <c r="J7">
-        <v>0.4795037514181035</v>
+        <v>0.47950375141810347</v>
       </c>
       <c r="K7">
-        <v>0.8134418919313428</v>
+        <v>0.81344189193134275</v>
       </c>
       <c r="L7">
-        <v>0.8876161585455464</v>
+        <v>0.88761615854554643</v>
       </c>
       <c r="M7">
         <v>1.031940652415485</v>
@@ -1487,13 +1762,13 @@
         <v>0.2888935568622753</v>
       </c>
       <c r="O7">
-        <v>0.902730580899103</v>
+        <v>0.90273058089910296</v>
       </c>
       <c r="P7">
-        <v>0.7210180889611574</v>
+        <v>0.72101808896115738</v>
       </c>
       <c r="Q7">
-        <v>0.5972103911926775</v>
+        <v>0.59721039119267749</v>
       </c>
       <c r="R7">
         <v>1.249256090160173</v>
@@ -1502,13 +1777,13 @@
         <v>0.8628020804547365</v>
       </c>
       <c r="T7">
-        <v>0.926772901013165</v>
+        <v>0.92677290101316501</v>
       </c>
       <c r="U7">
-        <v>0.6967043353188223</v>
+        <v>0.69670433531882225</v>
       </c>
       <c r="V7">
-        <v>0.809670798281805</v>
+        <v>0.80967079828180499</v>
       </c>
       <c r="W7">
         <v>1.318860792857699</v>
@@ -1517,246 +1792,246 @@
         <v>0.6184644899188001</v>
       </c>
       <c r="Y7">
-        <v>0.930317575692691</v>
+        <v>0.93031757569269102</v>
       </c>
       <c r="Z7">
-        <v>0.9172410752094983</v>
+        <v>0.91724107520949827</v>
       </c>
       <c r="AA7">
-        <v>0.8782890568581607</v>
+        <v>0.87828905685816072</v>
       </c>
       <c r="AB7">
         <v>1.090897603126304</v>
       </c>
       <c r="AC7">
-        <v>0.5306966036042235</v>
+        <v>0.53069660360422355</v>
       </c>
       <c r="AD7">
-        <v>0.5434303114999414</v>
+        <v>0.54343031149994137</v>
       </c>
       <c r="AE7">
-        <v>0.7317178352397846</v>
+        <v>0.73171783523978462</v>
       </c>
       <c r="AF7">
-        <v>0.6838160151299135</v>
+        <v>0.68381601512991352</v>
       </c>
       <c r="AG7">
         <v>1.023133165718878</v>
       </c>
       <c r="AH7">
-        <v>0.7264159483177017</v>
+        <v>0.72641594831770173</v>
       </c>
       <c r="AI7">
         <v>1.003609916698595</v>
       </c>
       <c r="AJ7">
-        <v>0.3573191836329941</v>
+        <v>0.35731918363299409</v>
       </c>
       <c r="AK7">
-        <v>0.5482285060629516</v>
+        <v>0.54822850606295159</v>
       </c>
       <c r="AL7">
-        <v>0.9518379256606154</v>
+        <v>0.95183792566061542</v>
       </c>
       <c r="AM7">
-        <v>0.76108259968127</v>
+        <v>0.76108259968127001</v>
       </c>
       <c r="AN7">
-        <v>1.385085481158591</v>
+        <v>1.3850854811585911</v>
       </c>
       <c r="AO7">
-        <v>0.9935231383920947</v>
+        <v>0.99352313839209472</v>
       </c>
       <c r="AP7">
-        <v>0.834895602951478</v>
+        <v>0.83489560295147802</v>
       </c>
       <c r="AQ7">
         <v>0.5084489808553333</v>
       </c>
       <c r="AR7">
-        <v>0.7325793284541346</v>
+        <v>0.73257932845413465</v>
       </c>
       <c r="AS7">
-        <v>1.048732022292239</v>
+        <v>1.0487320222922389</v>
       </c>
       <c r="AT7">
-        <v>0.8692950483766891</v>
+        <v>0.86929504837668914</v>
       </c>
       <c r="AU7">
-        <v>1.090082383916193</v>
+        <v>1.0900823839161931</v>
       </c>
       <c r="AV7">
-        <v>1.177342776724778</v>
+        <v>1.1773427767247779</v>
       </c>
       <c r="AW7">
-        <v>0.9987141270315409</v>
+        <v>0.99871412703154094</v>
       </c>
       <c r="AX7">
         <v>1.019952798373567</v>
       </c>
       <c r="AY7">
-        <v>0.9069588952936736</v>
+        <v>0.90695889529367357</v>
       </c>
       <c r="AZ7">
-        <v>0.889546636335056</v>
+        <v>0.88954663633505604</v>
       </c>
       <c r="BA7">
-        <v>0.8229390242183374</v>
+        <v>0.82293902421833742</v>
       </c>
       <c r="BB7">
-        <v>0.8323808482373791</v>
+        <v>0.83238084823737912</v>
       </c>
       <c r="BC7">
-        <v>0.3421752136095152</v>
+        <v>0.34217521360951519</v>
       </c>
       <c r="BD7">
-        <v>0.8169474347695682</v>
+        <v>0.81694743476956821</v>
       </c>
       <c r="BE7">
-        <v>0.6714366529888426</v>
+        <v>0.67143665298884259</v>
       </c>
       <c r="BF7">
-        <v>1.048235694749022</v>
+        <v>1.0482356947490219</v>
       </c>
       <c r="BG7">
-        <v>0.9238055755512761</v>
+        <v>0.92380557555127607</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
-      <c r="A8" s="1">
+    <row r="8" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7756168184228149</v>
+        <v>0.77561681842281494</v>
       </c>
       <c r="C8">
         <v>1.033525985185481</v>
       </c>
       <c r="D8">
-        <v>1.232377015994162</v>
+        <v>1.2323770159941621</v>
       </c>
       <c r="E8">
         <v>1.427589074990822</v>
       </c>
       <c r="F8">
-        <v>0.9523990508613627</v>
+        <v>0.95239905086136267</v>
       </c>
       <c r="G8">
-        <v>1.366596468111212</v>
+        <v>1.3665964681112119</v>
       </c>
       <c r="H8">
         <v>1.15394780601432</v>
       </c>
       <c r="I8">
-        <v>0.8094288681206385</v>
+        <v>0.80942886812063852</v>
       </c>
       <c r="J8">
-        <v>0.9162360579554734</v>
+        <v>0.91623605795547336</v>
       </c>
       <c r="K8">
-        <v>0.9837990331048941</v>
+        <v>0.98379903310489414</v>
       </c>
       <c r="L8">
-        <v>0.5261939694556904</v>
+        <v>0.52619396945569041</v>
       </c>
       <c r="M8">
-        <v>1.284521841308755</v>
+        <v>1.2845218413087549</v>
       </c>
       <c r="N8">
         <v>0.151991207515312</v>
       </c>
       <c r="O8">
-        <v>0.7668278599435308</v>
+        <v>0.76682785994353075</v>
       </c>
       <c r="P8">
         <v>0.3405264857544294</v>
       </c>
       <c r="Q8">
-        <v>0.4422036713569583</v>
+        <v>0.44220367135695832</v>
       </c>
       <c r="R8">
-        <v>1.25545079852525</v>
+        <v>1.2554507985252501</v>
       </c>
       <c r="S8">
         <v>1.139595869036339</v>
       </c>
       <c r="T8">
-        <v>0.6811583789585606</v>
+        <v>0.68115837895856057</v>
       </c>
       <c r="U8">
-        <v>0.6143130707777181</v>
+        <v>0.61431307077771813</v>
       </c>
       <c r="V8">
-        <v>0.9139298998541369</v>
+        <v>0.91392989985413686</v>
       </c>
       <c r="W8">
-        <v>0.7481396232435473</v>
+        <v>0.74813962324354732</v>
       </c>
       <c r="X8">
-        <v>0.9486294698849628</v>
+        <v>0.94862946988496277</v>
       </c>
       <c r="Y8">
         <v>1.030766482228054</v>
       </c>
       <c r="Z8">
-        <v>0.800491926823829</v>
+        <v>0.80049192682382897</v>
       </c>
       <c r="AA8">
         <v>0.9510272237149574</v>
       </c>
       <c r="AB8">
-        <v>1.167493618431242</v>
+        <v>1.1674936184312421</v>
       </c>
       <c r="AC8">
-        <v>0.1675093380568924</v>
+        <v>0.16750933805689239</v>
       </c>
       <c r="AD8">
-        <v>0.5540548354353323</v>
+        <v>0.55405483543533229</v>
       </c>
       <c r="AE8">
-        <v>0.7425215457487602</v>
+        <v>0.74252154574876017</v>
       </c>
       <c r="AF8">
-        <v>0.1529131022936177</v>
+        <v>0.15291310229361771</v>
       </c>
       <c r="AG8">
-        <v>0.8229262554929468</v>
+        <v>0.82292625549294685</v>
       </c>
       <c r="AH8">
         <v>0.7143760324328956</v>
       </c>
       <c r="AI8">
-        <v>1.4663544480312</v>
+        <v>1.4663544480312001</v>
       </c>
       <c r="AJ8">
         <v>0.6395243405209331</v>
       </c>
       <c r="AK8">
-        <v>0.8394790100814944</v>
+        <v>0.83947901008149439</v>
       </c>
       <c r="AL8">
-        <v>0.7504033554881566</v>
+        <v>0.75040335548815662</v>
       </c>
       <c r="AM8">
         <v>1.017136395130801</v>
       </c>
       <c r="AN8">
-        <v>0.8781042944657055</v>
+        <v>0.87810429446570548</v>
       </c>
       <c r="AO8">
-        <v>0.6954797685295542</v>
+        <v>0.69547976852955418</v>
       </c>
       <c r="AP8">
-        <v>0.9141023406726148</v>
+        <v>0.91410234067261475</v>
       </c>
       <c r="AQ8">
-        <v>-0.06113046543298285</v>
+        <v>-6.1130465432982853E-2</v>
       </c>
       <c r="AR8">
-        <v>0.7884043276397489</v>
+        <v>0.78840432763974888</v>
       </c>
       <c r="AS8">
-        <v>0.4977821913451805</v>
+        <v>0.49778219134518048</v>
       </c>
       <c r="AT8">
         <v>1.191242628441066</v>
@@ -1765,123 +2040,123 @@
         <v>1.202091606712542</v>
       </c>
       <c r="AV8">
-        <v>0.8069815017607391</v>
+        <v>0.80698150176073913</v>
       </c>
       <c r="AW8">
-        <v>0.4938142311137643</v>
+        <v>0.49381423111376432</v>
       </c>
       <c r="AX8">
-        <v>0.3128235106031951</v>
+        <v>0.31282351060319508</v>
       </c>
       <c r="AY8">
         <v>1.126731710901951</v>
       </c>
       <c r="AZ8">
-        <v>0.6294690266864167</v>
+        <v>0.62946902668641669</v>
       </c>
       <c r="BA8">
         <v>1.267849264468669</v>
       </c>
       <c r="BB8">
-        <v>0.9455033383366243</v>
+        <v>0.94550333833662425</v>
       </c>
       <c r="BC8">
-        <v>0.6694147825591544</v>
+        <v>0.66941478255915443</v>
       </c>
       <c r="BD8">
-        <v>1.01079342811225</v>
+        <v>1.0107934281122499</v>
       </c>
       <c r="BE8">
-        <v>0.6738133441726142</v>
+        <v>0.67381334417261418</v>
       </c>
       <c r="BF8">
-        <v>0.8619364444172807</v>
+        <v>0.86193644441728068</v>
       </c>
       <c r="BG8">
         <v>1.087504880130669</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
-      <c r="A9" s="1">
+    <row r="9" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5319787164829636</v>
+        <v>0.53197871648296358</v>
       </c>
       <c r="C9">
-        <v>0.8370873634050292</v>
+        <v>0.83708736340502921</v>
       </c>
       <c r="D9">
-        <v>1.168556118939143</v>
+        <v>1.1685561189391429</v>
       </c>
       <c r="E9">
-        <v>0.9308349116709038</v>
+        <v>0.93083491167090382</v>
       </c>
       <c r="F9">
-        <v>0.5820839082106047</v>
+        <v>0.58208390821060474</v>
       </c>
       <c r="G9">
-        <v>1.456304592784402</v>
+        <v>1.4563045927844021</v>
       </c>
       <c r="H9">
-        <v>0.2652168229637328</v>
+        <v>0.26521682296373278</v>
       </c>
       <c r="I9">
-        <v>0.4512034494999514</v>
+        <v>0.45120344949995139</v>
       </c>
       <c r="J9">
-        <v>0.3164062213938577</v>
+        <v>0.31640622139385771</v>
       </c>
       <c r="K9">
         <v>0.7319318521366025</v>
       </c>
       <c r="L9">
-        <v>0.07896244923334302</v>
+        <v>7.8962449233343016E-2</v>
       </c>
       <c r="M9">
-        <v>0.6690762561727456</v>
+        <v>0.66907625617274558</v>
       </c>
       <c r="N9">
         <v>0.165964668186143</v>
       </c>
       <c r="O9">
-        <v>0.9029950824093034</v>
+        <v>0.90299508240930337</v>
       </c>
       <c r="P9">
         <v>0.4402532948129606</v>
       </c>
       <c r="Q9">
-        <v>0.633351386035631</v>
+        <v>0.63335138603563101</v>
       </c>
       <c r="R9">
-        <v>0.4484650049273521</v>
+        <v>0.44846500492735208</v>
       </c>
       <c r="S9">
         <v>0.6996488401642621</v>
       </c>
       <c r="T9">
-        <v>0.2870095846562827</v>
+        <v>0.28700958465628268</v>
       </c>
       <c r="U9">
-        <v>0.4151640999080856</v>
+        <v>0.41516409990808562</v>
       </c>
       <c r="V9">
-        <v>0.03750333346296557</v>
+        <v>3.7503333462965568E-2</v>
       </c>
       <c r="W9">
-        <v>0.9011424302854464</v>
+        <v>0.90114243028544638</v>
       </c>
       <c r="X9">
-        <v>0.6732749681210536</v>
+        <v>0.67327496812105359</v>
       </c>
       <c r="Y9">
-        <v>0.4922985551709155</v>
+        <v>0.49229855517091548</v>
       </c>
       <c r="Z9">
-        <v>0.8105832930783731</v>
+        <v>0.81058329307837307</v>
       </c>
       <c r="AA9">
-        <v>0.8557076077720916</v>
+        <v>0.85570760777209165</v>
       </c>
       <c r="AB9">
         <v>0.7030327906628685</v>
@@ -1890,88 +2165,88 @@
         <v>-0.1979743093402567</v>
       </c>
       <c r="AD9">
-        <v>0.4986856674187138</v>
+        <v>0.49868566741871379</v>
       </c>
       <c r="AE9">
-        <v>0.4028374463021924</v>
+        <v>0.40283744630219243</v>
       </c>
       <c r="AF9">
-        <v>0.630948194749988</v>
+        <v>0.63094819474998798</v>
       </c>
       <c r="AG9">
-        <v>0.771291689053071</v>
+        <v>0.77129168905307099</v>
       </c>
       <c r="AH9">
-        <v>0.6819867768264005</v>
+        <v>0.68198677682640052</v>
       </c>
       <c r="AI9">
-        <v>0.7595741966435592</v>
+        <v>0.75957419664355919</v>
       </c>
       <c r="AJ9">
-        <v>0.4758952476716644</v>
+        <v>0.47589524767166441</v>
       </c>
       <c r="AK9">
-        <v>0.6754201172739268</v>
+        <v>0.67542011727392681</v>
       </c>
       <c r="AL9">
-        <v>0.3208658740474318</v>
+        <v>0.32086587404743178</v>
       </c>
       <c r="AM9">
-        <v>0.8829234869873194</v>
+        <v>0.88292348698731937</v>
       </c>
       <c r="AN9">
-        <v>0.9940404779476049</v>
+        <v>0.99404047794760486</v>
       </c>
       <c r="AO9">
-        <v>0.7880609532771813</v>
+        <v>0.78806095327718129</v>
       </c>
       <c r="AP9">
-        <v>0.4517762903919617</v>
+        <v>0.45177629039196171</v>
       </c>
       <c r="AQ9">
-        <v>0.283426217132546</v>
+        <v>0.28342621713254601</v>
       </c>
       <c r="AR9">
-        <v>0.4860190163589221</v>
+        <v>0.48601901635892208</v>
       </c>
       <c r="AS9">
-        <v>0.7883739389424084</v>
+        <v>0.78837393894240837</v>
       </c>
       <c r="AT9">
-        <v>0.298142303253864</v>
+        <v>0.29814230325386398</v>
       </c>
       <c r="AU9">
-        <v>0.4427026797272823</v>
+        <v>0.44270267972728228</v>
       </c>
       <c r="AV9">
-        <v>0.4825376673719157</v>
+        <v>0.48253766737191572</v>
       </c>
       <c r="AW9">
-        <v>0.6901039048510039</v>
+        <v>0.69010390485100392</v>
       </c>
       <c r="AX9">
-        <v>0.4887822722186064</v>
+        <v>0.48878227221860637</v>
       </c>
       <c r="AY9">
-        <v>0.7385956052701754</v>
+        <v>0.73859560527017543</v>
       </c>
       <c r="AZ9">
-        <v>0.9029614466056891</v>
+        <v>0.90296144660568911</v>
       </c>
       <c r="BA9">
-        <v>0.5607518071977173</v>
+        <v>0.56075180719771733</v>
       </c>
       <c r="BB9">
-        <v>0.6775407189596075</v>
+        <v>0.67754071895960755</v>
       </c>
       <c r="BC9">
-        <v>0.7472966640467614</v>
+        <v>0.74729666404676143</v>
       </c>
       <c r="BD9">
-        <v>0.7026053024286545</v>
+        <v>0.70260530242865449</v>
       </c>
       <c r="BE9">
-        <v>0.3406233350659189</v>
+        <v>0.34062333506591891</v>
       </c>
       <c r="BF9">
         <v>0.4878185379031611</v>
@@ -1980,27 +2255,27 @@
         <v>0.7235593205625247</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
-      <c r="A10" s="1">
+    <row r="10" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1589799038046076</v>
+        <v>0.15897990380460761</v>
       </c>
       <c r="C10">
-        <v>0.819753335664394</v>
+        <v>0.81975333566439401</v>
       </c>
       <c r="D10">
-        <v>0.4896019308424985</v>
+        <v>0.48960193084249848</v>
       </c>
       <c r="E10">
-        <v>0.2530740672138075</v>
+        <v>0.25307406721380749</v>
       </c>
       <c r="F10">
-        <v>0.5135635726054305</v>
+        <v>0.51356357260543051</v>
       </c>
       <c r="G10">
-        <v>-0.01278945206335222</v>
+        <v>-1.2789452063352221E-2</v>
       </c>
       <c r="H10">
         <v>0.1755666548431751</v>
@@ -2009,158 +2284,158 @@
         <v>0.5770869654078542</v>
       </c>
       <c r="J10">
-        <v>-0.02998500554102115</v>
+        <v>-2.998500554102115E-2</v>
       </c>
       <c r="K10">
-        <v>0.8534582934965909</v>
+        <v>0.85345829349659086</v>
       </c>
       <c r="L10">
-        <v>0.03174306822077435</v>
+        <v>3.1743068220774349E-2</v>
       </c>
       <c r="M10">
-        <v>0.5433908763533518</v>
+        <v>0.54339087635335181</v>
       </c>
       <c r="N10">
-        <v>-0.2188731823975033</v>
+        <v>-0.21887318239750331</v>
       </c>
       <c r="O10">
-        <v>0.3400956712326418</v>
+        <v>0.34009567123264178</v>
       </c>
       <c r="P10">
-        <v>0.5016615298814684</v>
+        <v>0.50166152988146839</v>
       </c>
       <c r="Q10">
-        <v>0.4364711093195283</v>
+        <v>0.43647110931952832</v>
       </c>
       <c r="R10">
         <v>0.5432827836596269</v>
       </c>
       <c r="S10">
-        <v>0.38435985735974</v>
+        <v>0.38435985735973999</v>
       </c>
       <c r="T10">
-        <v>0.6044961104127852</v>
+        <v>0.60449611041278517</v>
       </c>
       <c r="U10">
         <v>0.2430957151993402</v>
       </c>
       <c r="V10">
-        <v>-0.01552329722010625</v>
+        <v>-1.5523297220106249E-2</v>
       </c>
       <c r="W10">
         <v>0.1655653742372262</v>
       </c>
       <c r="X10">
-        <v>0.556489899336211</v>
+        <v>0.55648989933621096</v>
       </c>
       <c r="Y10">
-        <v>0.7013000905953607</v>
+        <v>0.70130009059536069</v>
       </c>
       <c r="Z10">
-        <v>0.6753959900878337</v>
+        <v>0.67539599008783369</v>
       </c>
       <c r="AA10">
-        <v>0.6614871386569749</v>
+        <v>0.66148713865697495</v>
       </c>
       <c r="AB10">
-        <v>0.09077120565646379</v>
+        <v>9.0771205656463794E-2</v>
       </c>
       <c r="AC10">
         <v>-0.1172147408149172</v>
       </c>
       <c r="AD10">
-        <v>-0.2481363622654897</v>
+        <v>-0.24813636226548971</v>
       </c>
       <c r="AE10">
-        <v>0.1998376067958511</v>
+        <v>0.19983760679585111</v>
       </c>
       <c r="AF10">
         <v>0.458608780165702</v>
       </c>
       <c r="AG10">
-        <v>0.4103060780515629</v>
+        <v>0.41030607805156288</v>
       </c>
       <c r="AH10">
-        <v>0.6090744562283468</v>
+        <v>0.60907445622834677</v>
       </c>
       <c r="AI10">
-        <v>0.2369587066004356</v>
+        <v>0.23695870660043561</v>
       </c>
       <c r="AJ10">
-        <v>0.3557945222865647</v>
+        <v>0.35579452228656472</v>
       </c>
       <c r="AK10">
-        <v>0.7052156705671372</v>
+        <v>0.70521567056713719</v>
       </c>
       <c r="AL10">
-        <v>0.2528383949562754</v>
+        <v>0.25283839495627541</v>
       </c>
       <c r="AM10">
-        <v>0.7821677600930478</v>
+        <v>0.78216776009304778</v>
       </c>
       <c r="AN10">
-        <v>0.6066368476767783</v>
+        <v>0.60663684767677828</v>
       </c>
       <c r="AO10">
-        <v>0.7423694527071732</v>
+        <v>0.74236945270717325</v>
       </c>
       <c r="AP10">
         <v>0.8536974115605388</v>
       </c>
       <c r="AQ10">
-        <v>-0.17676606425136</v>
+        <v>-0.17676606425135999</v>
       </c>
       <c r="AR10">
-        <v>0.5319556640849391</v>
+        <v>0.53195566408493911</v>
       </c>
       <c r="AS10">
-        <v>1.140911870075746</v>
+        <v>1.1409118700757459</v>
       </c>
       <c r="AT10">
-        <v>0.4182176791987339</v>
+        <v>0.41821767919873393</v>
       </c>
       <c r="AU10">
-        <v>0.4711469384974425</v>
+        <v>0.47114693849744249</v>
       </c>
       <c r="AV10">
-        <v>0.2378971661728355</v>
+        <v>0.23789716617283549</v>
       </c>
       <c r="AW10">
         <v>0.1567717311190471</v>
       </c>
       <c r="AX10">
-        <v>-0.1312480758010243</v>
+        <v>-0.13124807580102429</v>
       </c>
       <c r="AY10">
-        <v>0.005555116066358506</v>
+        <v>5.5551160663585061E-3</v>
       </c>
       <c r="AZ10">
-        <v>0.266833370079603</v>
+        <v>0.26683337007960301</v>
       </c>
       <c r="BA10">
-        <v>0.618530459681268</v>
+        <v>0.61853045968126796</v>
       </c>
       <c r="BB10">
-        <v>0.4718719044349859</v>
+        <v>0.47187190443498589</v>
       </c>
       <c r="BC10">
-        <v>0.0689345210448319</v>
+        <v>6.8934521044831901E-2</v>
       </c>
       <c r="BD10">
-        <v>0.8461993068040313</v>
+        <v>0.84619930680403133</v>
       </c>
       <c r="BE10">
         <v>0.2666797933595712</v>
       </c>
       <c r="BF10">
-        <v>-0.004007887372216502</v>
+        <v>-4.0078873722165023E-3</v>
       </c>
       <c r="BG10">
-        <v>0.6191154691915861</v>
+        <v>0.61911546919158611</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
-      <c r="A11" s="1">
+    <row r="11" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -2170,16 +2445,16 @@
         <v>1.336600059102127</v>
       </c>
       <c r="D11">
-        <v>1.210233786057236</v>
+        <v>1.2102337860572361</v>
       </c>
       <c r="E11">
-        <v>1.163221621765476</v>
+        <v>1.1632216217654761</v>
       </c>
       <c r="F11">
         <v>1.160994085535366</v>
       </c>
       <c r="G11">
-        <v>0.3000190213629507</v>
+        <v>0.30001902136295072</v>
       </c>
       <c r="H11">
         <v>1.140537677447063</v>
@@ -2188,31 +2463,31 @@
         <v>1.32542698825224</v>
       </c>
       <c r="J11">
-        <v>1.146883060865905</v>
+        <v>1.1468830608659051</v>
       </c>
       <c r="K11">
         <v>1.335187229358876</v>
       </c>
       <c r="L11">
-        <v>0.6800954225965342</v>
+        <v>0.68009542259653422</v>
       </c>
       <c r="M11">
         <v>1.21776722837513</v>
       </c>
       <c r="N11">
-        <v>1.504843010678604</v>
+        <v>1.5048430106786039</v>
       </c>
       <c r="O11">
         <v>1.004223195369665</v>
       </c>
       <c r="P11">
-        <v>0.8987402477566429</v>
+        <v>0.89874024775664285</v>
       </c>
       <c r="Q11">
-        <v>1.113217130112217</v>
+        <v>1.1132171301122169</v>
       </c>
       <c r="R11">
-        <v>1.399607492472328</v>
+        <v>1.3996074924723281</v>
       </c>
       <c r="S11">
         <v>1.383418054916342</v>
@@ -2224,10 +2499,10 @@
         <v>1.061785370984853</v>
       </c>
       <c r="V11">
-        <v>1.215248041657465</v>
+        <v>1.2152480416574649</v>
       </c>
       <c r="W11">
-        <v>0.9613687235851378</v>
+        <v>0.96136872358513781</v>
       </c>
       <c r="X11">
         <v>1.173673908195686</v>
@@ -2236,7 +2511,7 @@
         <v>1.300166919488366</v>
       </c>
       <c r="Z11">
-        <v>1.196447752024349</v>
+        <v>1.1964477520243491</v>
       </c>
       <c r="AA11">
         <v>1.441551142375836</v>
@@ -2245,40 +2520,40 @@
         <v>1.002958003637773</v>
       </c>
       <c r="AC11">
-        <v>0.7182265037401878</v>
+        <v>0.71822650374018782</v>
       </c>
       <c r="AD11">
-        <v>1.352408189381758</v>
+        <v>1.3524081893817581</v>
       </c>
       <c r="AE11">
-        <v>1.017552009379647</v>
+        <v>1.0175520093796471</v>
       </c>
       <c r="AF11">
-        <v>0.7086189847682651</v>
+        <v>0.70861898476826513</v>
       </c>
       <c r="AG11">
-        <v>1.385036939466807</v>
+        <v>1.3850369394668069</v>
       </c>
       <c r="AH11">
-        <v>1.20207967461145</v>
+        <v>1.2020796746114499</v>
       </c>
       <c r="AI11">
-        <v>1.241037334581433</v>
+        <v>1.2410373345814329</v>
       </c>
       <c r="AJ11">
         <v>1.37458870198922</v>
       </c>
       <c r="AK11">
-        <v>1.255956210672487</v>
+        <v>1.2559562106724871</v>
       </c>
       <c r="AL11">
-        <v>0.6096229634597438</v>
+        <v>0.60962296345974376</v>
       </c>
       <c r="AM11">
         <v>1.414136626991944</v>
       </c>
       <c r="AN11">
-        <v>0.5950769246284662</v>
+        <v>0.59507692462846618</v>
       </c>
       <c r="AO11">
         <v>1.017221938026329</v>
@@ -2287,10 +2562,10 @@
         <v>1.126262427855705</v>
       </c>
       <c r="AQ11">
-        <v>0.7861178980264122</v>
+        <v>0.78611789802641219</v>
       </c>
       <c r="AR11">
-        <v>1.375768365903321</v>
+        <v>1.3757683659033211</v>
       </c>
       <c r="AS11">
         <v>1.033524414253618</v>
@@ -2299,22 +2574,22 @@
         <v>1.327718608831757</v>
       </c>
       <c r="AU11">
-        <v>1.4008427330604</v>
+        <v>1.4008427330604001</v>
       </c>
       <c r="AV11">
         <v>1.633775056801761</v>
       </c>
       <c r="AW11">
-        <v>0.8441705460928354</v>
+        <v>0.84417054609283537</v>
       </c>
       <c r="AX11">
         <v>1.005979065025884</v>
       </c>
       <c r="AY11">
-        <v>1.212015163137644</v>
+        <v>1.2120151631376439</v>
       </c>
       <c r="AZ11">
-        <v>0.7656301976124907</v>
+        <v>0.76563019761249074</v>
       </c>
       <c r="BA11">
         <v>1.035167476905579</v>
@@ -2323,19 +2598,19 @@
         <v>1.539939895568248</v>
       </c>
       <c r="BC11">
-        <v>0.5329037991071119</v>
+        <v>0.53290379910711194</v>
       </c>
       <c r="BD11">
         <v>1.166520997553844</v>
       </c>
       <c r="BE11">
-        <v>0.3240602852535915</v>
+        <v>0.32406028525359148</v>
       </c>
       <c r="BF11">
-        <v>0.9225388426484742</v>
+        <v>0.92253884264847419</v>
       </c>
       <c r="BG11">
-        <v>1.335311470466159</v>
+        <v>1.3353114704661591</v>
       </c>
     </row>
   </sheetData>
